--- a/Week6/dictionary/c2021_a.new.xlsx
+++ b/Week6/dictionary/c2021_a.new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidtorres/Code/NU/TIM7020/Week6/dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BCD684-D991-8347-A959-2EA1D7F8F471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC600BF1-0C46-6140-B72B-DFE6CA226917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="76800" windowHeight="23500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6640" yWindow="4420" windowWidth="32600" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="varlist" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="144">
   <si>
     <t>varnumber</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>CIPCODE</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>Disc</t>
@@ -821,12 +818,14 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -889,22 +888,22 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -912,7 +911,7 @@
         <v>31005</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -921,13 +920,16 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
       </c>
       <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
         <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -935,7 +937,7 @@
         <v>35005</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -944,13 +946,16 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
       </c>
       <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
         <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -958,25 +963,25 @@
         <v>31130</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>26</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -984,25 +989,25 @@
         <v>31085</v>
       </c>
       <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>30</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>31</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1010,25 +1015,25 @@
         <v>31090</v>
       </c>
       <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>34</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>35</v>
-      </c>
-      <c r="H8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1036,25 +1041,25 @@
         <v>31580</v>
       </c>
       <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>38</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1062,25 +1067,25 @@
         <v>31515</v>
       </c>
       <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>42</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>43</v>
-      </c>
-      <c r="H10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1088,25 +1093,25 @@
         <v>31520</v>
       </c>
       <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>46</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1114,25 +1119,25 @@
         <v>31585</v>
       </c>
       <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
         <v>49</v>
       </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>50</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>51</v>
-      </c>
-      <c r="H12" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1140,25 +1145,25 @@
         <v>31525</v>
       </c>
       <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
         <v>53</v>
       </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>54</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>55</v>
-      </c>
-      <c r="H13" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1166,25 +1171,25 @@
         <v>31530</v>
       </c>
       <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>58</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>59</v>
-      </c>
-      <c r="H14" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1192,25 +1197,25 @@
         <v>31590</v>
       </c>
       <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
         <v>61</v>
       </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>62</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>63</v>
-      </c>
-      <c r="H15" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1218,25 +1223,25 @@
         <v>31535</v>
       </c>
       <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
         <v>65</v>
       </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>66</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>67</v>
-      </c>
-      <c r="H16" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1244,25 +1249,25 @@
         <v>31540</v>
       </c>
       <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
         <v>69</v>
       </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>70</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>71</v>
-      </c>
-      <c r="H17" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1270,25 +1275,25 @@
         <v>31575</v>
       </c>
       <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
         <v>73</v>
       </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>74</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>75</v>
-      </c>
-      <c r="H18" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1296,25 +1301,25 @@
         <v>31505</v>
       </c>
       <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
         <v>77</v>
       </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>78</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>79</v>
-      </c>
-      <c r="H19" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1322,25 +1327,25 @@
         <v>31510</v>
       </c>
       <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
         <v>81</v>
       </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>82</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>83</v>
-      </c>
-      <c r="H20" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1348,25 +1353,25 @@
         <v>31595</v>
       </c>
       <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
         <v>85</v>
       </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21">
-        <v>6</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>86</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>87</v>
-      </c>
-      <c r="H21" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1374,25 +1379,25 @@
         <v>31545</v>
       </c>
       <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
         <v>89</v>
       </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22">
-        <v>6</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>90</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>91</v>
-      </c>
-      <c r="H22" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1400,25 +1405,25 @@
         <v>31550</v>
       </c>
       <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
         <v>93</v>
       </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23">
-        <v>6</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>94</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>95</v>
-      </c>
-      <c r="H23" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1426,25 +1431,25 @@
         <v>31600</v>
       </c>
       <c r="B24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
         <v>97</v>
       </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24">
-        <v>6</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>98</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>99</v>
-      </c>
-      <c r="H24" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1452,25 +1457,25 @@
         <v>31555</v>
       </c>
       <c r="B25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
         <v>101</v>
       </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25">
-        <v>6</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>102</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>103</v>
-      </c>
-      <c r="H25" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1478,25 +1483,25 @@
         <v>31560</v>
       </c>
       <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
         <v>105</v>
       </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26">
-        <v>6</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>106</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>107</v>
-      </c>
-      <c r="H26" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1504,25 +1509,25 @@
         <v>31605</v>
       </c>
       <c r="B27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
         <v>109</v>
       </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27">
-        <v>6</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>110</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>111</v>
-      </c>
-      <c r="H27" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1530,25 +1535,25 @@
         <v>31565</v>
       </c>
       <c r="B28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
         <v>113</v>
       </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28">
-        <v>6</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>114</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>115</v>
-      </c>
-      <c r="H28" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1556,25 +1561,25 @@
         <v>31570</v>
       </c>
       <c r="B29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
         <v>117</v>
       </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29">
-        <v>6</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>118</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>119</v>
-      </c>
-      <c r="H29" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1582,25 +1587,25 @@
         <v>31125</v>
       </c>
       <c r="B30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
         <v>121</v>
       </c>
-      <c r="C30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30">
-        <v>6</v>
-      </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>122</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>123</v>
-      </c>
-      <c r="H30" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1608,25 +1613,25 @@
         <v>31075</v>
       </c>
       <c r="B31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
         <v>125</v>
       </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31">
-        <v>6</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>126</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>127</v>
-      </c>
-      <c r="H31" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1634,25 +1639,25 @@
         <v>31080</v>
       </c>
       <c r="B32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
         <v>129</v>
       </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32">
-        <v>6</v>
-      </c>
-      <c r="E32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>130</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>131</v>
-      </c>
-      <c r="H32" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1660,25 +1665,25 @@
         <v>31095</v>
       </c>
       <c r="B33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
         <v>133</v>
       </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33">
-        <v>6</v>
-      </c>
-      <c r="E33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>134</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>135</v>
-      </c>
-      <c r="H33" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1686,25 +1691,25 @@
         <v>31015</v>
       </c>
       <c r="B34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
         <v>137</v>
       </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34">
-        <v>6</v>
-      </c>
-      <c r="E34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>138</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>139</v>
-      </c>
-      <c r="H34" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1712,25 +1717,25 @@
         <v>31020</v>
       </c>
       <c r="B35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
         <v>141</v>
       </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35">
-        <v>6</v>
-      </c>
-      <c r="E35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>142</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>143</v>
-      </c>
-      <c r="H35" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/Week6/dictionary/c2021_a.new.xlsx
+++ b/Week6/dictionary/c2021_a.new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10819"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidtorres/Code/NU/TIM7020/Week6/dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC600BF1-0C46-6140-B72B-DFE6CA226917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9A701B-C855-B240-A780-6CB8A23F3B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6640" yWindow="4420" windowWidth="32600" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>CIP Code -  2020 Classification</t>
   </si>
   <si>
-    <t>cip_code_2020</t>
-  </si>
-  <si>
     <t>MAJORNUM</t>
   </si>
   <si>
@@ -452,6 +449,9 @@
   </si>
   <si>
     <t>nonresident_alien_women</t>
+  </si>
+  <si>
+    <t>cip_code</t>
   </si>
 </sst>
 </file>
@@ -818,7 +818,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -903,7 +903,7 @@
         <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -911,7 +911,7 @@
         <v>31005</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -926,10 +926,10 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -937,7 +937,7 @@
         <v>35005</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -952,10 +952,10 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
         <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -963,25 +963,25 @@
         <v>31130</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -989,25 +989,25 @@
         <v>31085</v>
       </c>
       <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>30</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1015,25 +1015,25 @@
         <v>31090</v>
       </c>
       <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>33</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1041,25 +1041,25 @@
         <v>31580</v>
       </c>
       <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>37</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>38</v>
-      </c>
-      <c r="H9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1067,25 +1067,25 @@
         <v>31515</v>
       </c>
       <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>41</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>42</v>
-      </c>
-      <c r="H10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1093,25 +1093,25 @@
         <v>31520</v>
       </c>
       <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>45</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1119,25 +1119,25 @@
         <v>31585</v>
       </c>
       <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>49</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>50</v>
-      </c>
-      <c r="H12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1145,25 +1145,25 @@
         <v>31525</v>
       </c>
       <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
         <v>52</v>
       </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>53</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>54</v>
-      </c>
-      <c r="H13" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1171,25 +1171,25 @@
         <v>31530</v>
       </c>
       <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
         <v>56</v>
       </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>57</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>58</v>
-      </c>
-      <c r="H14" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1197,25 +1197,25 @@
         <v>31590</v>
       </c>
       <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
         <v>60</v>
       </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>61</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>62</v>
-      </c>
-      <c r="H15" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1223,25 +1223,25 @@
         <v>31535</v>
       </c>
       <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
         <v>64</v>
       </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>65</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>66</v>
-      </c>
-      <c r="H16" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1249,25 +1249,25 @@
         <v>31540</v>
       </c>
       <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
         <v>68</v>
       </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>69</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>70</v>
-      </c>
-      <c r="H17" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1275,25 +1275,25 @@
         <v>31575</v>
       </c>
       <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
         <v>72</v>
       </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>73</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>74</v>
-      </c>
-      <c r="H18" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1301,25 +1301,25 @@
         <v>31505</v>
       </c>
       <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
         <v>76</v>
       </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>77</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>78</v>
-      </c>
-      <c r="H19" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1327,25 +1327,25 @@
         <v>31510</v>
       </c>
       <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
         <v>80</v>
       </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>81</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>82</v>
-      </c>
-      <c r="H20" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1353,25 +1353,25 @@
         <v>31595</v>
       </c>
       <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
         <v>84</v>
       </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21">
-        <v>6</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>85</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>86</v>
-      </c>
-      <c r="H21" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1379,25 +1379,25 @@
         <v>31545</v>
       </c>
       <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
         <v>88</v>
       </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22">
-        <v>6</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>89</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>90</v>
-      </c>
-      <c r="H22" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1405,25 +1405,25 @@
         <v>31550</v>
       </c>
       <c r="B23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
         <v>92</v>
       </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23">
-        <v>6</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>93</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>94</v>
-      </c>
-      <c r="H23" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1431,25 +1431,25 @@
         <v>31600</v>
       </c>
       <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
         <v>96</v>
       </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24">
-        <v>6</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>97</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>98</v>
-      </c>
-      <c r="H24" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1457,25 +1457,25 @@
         <v>31555</v>
       </c>
       <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
         <v>100</v>
       </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25">
-        <v>6</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>101</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>102</v>
-      </c>
-      <c r="H25" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1483,25 +1483,25 @@
         <v>31560</v>
       </c>
       <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
         <v>104</v>
       </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26">
-        <v>6</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>105</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>106</v>
-      </c>
-      <c r="H26" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1509,25 +1509,25 @@
         <v>31605</v>
       </c>
       <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
         <v>108</v>
       </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27">
-        <v>6</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>109</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>110</v>
-      </c>
-      <c r="H27" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1535,25 +1535,25 @@
         <v>31565</v>
       </c>
       <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
         <v>112</v>
       </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28">
-        <v>6</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>113</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>114</v>
-      </c>
-      <c r="H28" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1561,25 +1561,25 @@
         <v>31570</v>
       </c>
       <c r="B29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
         <v>116</v>
       </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29">
-        <v>6</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>117</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>118</v>
-      </c>
-      <c r="H29" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1587,25 +1587,25 @@
         <v>31125</v>
       </c>
       <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
         <v>120</v>
       </c>
-      <c r="C30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30">
-        <v>6</v>
-      </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>121</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>122</v>
-      </c>
-      <c r="H30" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1613,25 +1613,25 @@
         <v>31075</v>
       </c>
       <c r="B31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
         <v>124</v>
       </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31">
-        <v>6</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>125</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>126</v>
-      </c>
-      <c r="H31" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1639,25 +1639,25 @@
         <v>31080</v>
       </c>
       <c r="B32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
         <v>128</v>
       </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32">
-        <v>6</v>
-      </c>
-      <c r="E32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>129</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>130</v>
-      </c>
-      <c r="H32" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1665,25 +1665,25 @@
         <v>31095</v>
       </c>
       <c r="B33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
         <v>132</v>
       </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33">
-        <v>6</v>
-      </c>
-      <c r="E33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>133</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>134</v>
-      </c>
-      <c r="H33" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1691,25 +1691,25 @@
         <v>31015</v>
       </c>
       <c r="B34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
         <v>136</v>
       </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34">
-        <v>6</v>
-      </c>
-      <c r="E34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>137</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>138</v>
-      </c>
-      <c r="H34" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1717,25 +1717,25 @@
         <v>31020</v>
       </c>
       <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
         <v>140</v>
       </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35">
-        <v>6</v>
-      </c>
-      <c r="E35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>141</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>142</v>
-      </c>
-      <c r="H35" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
